--- a/target/classes/TestSuite/TestCase.xlsx
+++ b/target/classes/TestSuite/TestCase.xlsx
@@ -150,9 +150,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -181,12 +181,95 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -195,9 +278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,96 +294,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -309,8 +301,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,187 +325,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,6 +578,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -607,154 +616,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E173"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/target/classes/TestSuite/TestCase.xlsx
+++ b/target/classes/TestSuite/TestCase.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29420" windowHeight="14020" tabRatio="851"/>
+    <workbookView windowWidth="29420" windowHeight="14700" tabRatio="851" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JKNS" sheetId="9" r:id="rId1"/>
+    <sheet name="Phonepe" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="44">
   <si>
     <t>description</t>
   </si>
@@ -143,6 +144,9 @@
   </si>
   <si>
     <t>close</t>
+  </si>
+  <si>
+    <t>https://app.lifafa.team/in/inbom240400012s05/home</t>
   </si>
 </sst>
 </file>
@@ -150,9 +154,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -180,6 +184,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -188,7 +207,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,113 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -325,31 +329,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +437,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,31 +473,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,103 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +527,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +582,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,141 +614,91 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,58 +707,58 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,7 +1122,7 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1393,4 +1397,288 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="9876501234"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://app.lifafa.team/in/inbom240400012s05/home" tooltip="https://app.lifafa.team/in/inbom240400012s05/home"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://app.lifafa.team/in/inbom240400012s05/home"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/target/classes/TestSuite/TestCase.xlsx
+++ b/target/classes/TestSuite/TestCase.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29420" windowHeight="14700" tabRatio="851" activeTab="1"/>
+    <workbookView windowWidth="29420" windowHeight="14020" tabRatio="851"/>
   </bookViews>
   <sheets>
     <sheet name="JKNS" sheetId="9" r:id="rId1"/>
-    <sheet name="Phonepe" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>description</t>
   </si>
@@ -144,9 +143,6 @@
   </si>
   <si>
     <t>close</t>
-  </si>
-  <si>
-    <t>https://app.lifafa.team/in/inbom240400012s05/home</t>
   </si>
 </sst>
 </file>
@@ -154,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -184,8 +180,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -200,22 +203,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,91 +295,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,25 +325,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,157 +469,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +523,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,48 +588,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,154 +616,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,7 +1118,7 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1397,288 +1393,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="9876501234"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://app.lifafa.team/in/inbom240400012s05/home" tooltip="https://app.lifafa.team/in/inbom240400012s05/home"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://app.lifafa.team/in/inbom240400012s05/home"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/target/classes/TestSuite/TestCase.xlsx
+++ b/target/classes/TestSuite/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29420" windowHeight="14020" tabRatio="851"/>
+    <workbookView windowWidth="29420" windowHeight="14700" tabRatio="851"/>
   </bookViews>
   <sheets>
     <sheet name="JKNS" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>description</t>
   </si>
@@ -65,78 +65,6 @@
   </si>
   <si>
     <t>usericon</t>
-  </si>
-  <si>
-    <t>Click on login</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>Enter phone number</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>9876501234</t>
-  </si>
-  <si>
-    <t>phonenumber</t>
-  </si>
-  <si>
-    <t>Click on proceed</t>
-  </si>
-  <si>
-    <t>proceed</t>
-  </si>
-  <si>
-    <t>Enter 1 digit OTP</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>otpverification1</t>
-  </si>
-  <si>
-    <t>Enter 2 digit OTP</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>otpverification2</t>
-  </si>
-  <si>
-    <t>Enter 3 digit OTP</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>otpverification3</t>
-  </si>
-  <si>
-    <t>Enter 4 digit OTP</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>otpverification4</t>
-  </si>
-  <si>
-    <t>Enter 5 digit OTP</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>otpverification5</t>
-  </si>
-  <si>
-    <t>verifyotp</t>
   </si>
   <si>
     <t>Close the browser</t>
@@ -155,7 +83,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,12 +104,26 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,16 +138,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,105 +235,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -325,187 +245,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,8 +442,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +480,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -584,24 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -616,145 +527,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,12 +682,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,13 +1033,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -1220,175 +1137,19 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="9876501234"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
